--- a/common/src/main/webapp/imports/export-王春伟-45.xlsx
+++ b/common/src/main/webapp/imports/export-王春伟-45.xlsx
@@ -1480,12 +1480,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1501,9 +1501,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1518,30 +1546,39 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1553,62 +1590,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1630,6 +1614,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -1637,16 +1637,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1661,7 +1654,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1673,19 +1684,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1697,19 +1696,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1727,13 +1720,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1745,19 +1792,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1775,67 +1828,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1855,6 +1848,50 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1870,35 +1907,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1910,21 +1918,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1947,8 +1940,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1957,156 +1950,159 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2460,66 +2456,66 @@
   <dimension ref="A1:AE45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A$1:A$1048576"/>
+      <selection activeCell="C8" sqref="A1:Q45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="30" customHeight="1" zeroHeight="1"/>
   <cols>
     <col min="1" max="31" width="24.3333333333333" style="1" customWidth="1"/>
     <col min="32" max="16383" width="8.88333333333333" style="1" hidden="1"/>
-    <col min="16384" max="16384" width="0" style="1"/>
+    <col min="16384" max="16384" width="0" style="1" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:31">
-      <c r="A1" s="1">
+      <c r="A1" s="2">
         <v>123</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>13</v>
       </c>
       <c r="X1" s="1" t="s">
@@ -2545,55 +2541,55 @@
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:31">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
         <v>126</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="1">
+      <c r="N2" s="2">
         <v>200</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="O2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="P2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="Q2" s="2" t="s">
         <v>28</v>
       </c>
       <c r="X2" s="1" t="s">
@@ -2619,55 +2615,55 @@
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:31">
-      <c r="A3" s="1">
+      <c r="A3" s="2">
         <v>129</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="M3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="1">
+      <c r="N3" s="2">
         <v>3000</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="O3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="P3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="Q3" s="2">
         <v>28263388</v>
       </c>
       <c r="X3" s="1" t="s">
@@ -2693,55 +2689,55 @@
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:31">
-      <c r="A4" s="1">
+      <c r="A4" s="2">
         <v>446</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="K4" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="L4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="M4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N4" s="1">
+      <c r="N4" s="2">
         <v>500</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="O4" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="P4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="Q4" s="2">
         <v>88087292</v>
       </c>
       <c r="X4" s="1" t="s">
@@ -2767,55 +2763,55 @@
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:31">
-      <c r="A5" s="1">
+      <c r="A5" s="2">
         <v>442</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="K5" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="L5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="M5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N5" s="1">
+      <c r="N5" s="2">
         <v>200</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="O5" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="P5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="Q5" s="2">
         <v>66991777</v>
       </c>
       <c r="X5" s="1" t="s">
@@ -2841,54 +2837,55 @@
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:31">
-      <c r="A6" s="1">
+      <c r="A6" s="2">
         <v>443</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="J6" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="K6" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="L6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="M6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N6" s="1">
+      <c r="N6" s="2">
         <v>40</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="O6" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="P6" s="1" t="s">
+      <c r="P6" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="Q6" s="2"/>
       <c r="X6" s="1" t="s">
         <v>14</v>
       </c>
@@ -2912,55 +2909,55 @@
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:31">
-      <c r="A7" s="1">
+      <c r="A7" s="2">
         <v>121</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="J7" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="K7" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="L7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="M7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N7" s="1">
+      <c r="N7" s="2">
         <v>500</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="O7" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="P7" s="1" t="s">
+      <c r="P7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="Q7" s="1">
+      <c r="Q7" s="2">
         <v>88315005</v>
       </c>
       <c r="X7" s="1" t="s">
@@ -2986,55 +2983,55 @@
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:31">
-      <c r="A8" s="1">
+      <c r="A8" s="2">
         <v>115</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="I8" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="J8" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="K8" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="L8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="M8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N8" s="1">
+      <c r="N8" s="2">
         <v>500</v>
       </c>
-      <c r="O8" s="1" t="s">
+      <c r="O8" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="P8" s="1" t="s">
+      <c r="P8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="Q8" s="2">
         <v>88928200</v>
       </c>
       <c r="X8" s="1" t="s">
@@ -3060,55 +3057,55 @@
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:31">
-      <c r="A9" s="1">
+      <c r="A9" s="2">
         <v>95</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="I9" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="J9" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="K9" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="L9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M9" s="1" t="s">
+      <c r="M9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N9" s="1">
+      <c r="N9" s="2">
         <v>200</v>
       </c>
-      <c r="O9" s="1" t="s">
+      <c r="O9" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="P9" s="1" t="s">
+      <c r="P9" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="Q9" s="1">
+      <c r="Q9" s="2">
         <v>89737012</v>
       </c>
       <c r="X9" s="1" t="s">
@@ -3134,55 +3131,55 @@
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:31">
-      <c r="A10" s="1">
+      <c r="A10" s="2">
         <v>120</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="I10" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="J10" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="K10" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="L10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="M10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N10" s="1">
+      <c r="N10" s="2">
         <v>300</v>
       </c>
-      <c r="O10" s="1" t="s">
+      <c r="O10" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="P10" s="1" t="s">
+      <c r="P10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="Q10" s="1" t="s">
+      <c r="Q10" s="2" t="s">
         <v>115</v>
       </c>
       <c r="X10" s="1" t="s">
@@ -3208,55 +3205,55 @@
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:31">
-      <c r="A11" s="1">
+      <c r="A11" s="2">
         <v>127</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H11" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="I11" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="J11" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="K11" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="L11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M11" s="1" t="s">
+      <c r="M11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N11" s="1">
+      <c r="N11" s="2">
         <v>20000</v>
       </c>
-      <c r="O11" s="1" t="s">
+      <c r="O11" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="P11" s="1" t="s">
+      <c r="P11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="Q11" s="1" t="s">
+      <c r="Q11" s="2" t="s">
         <v>125</v>
       </c>
       <c r="X11" s="1" t="s">
@@ -3282,55 +3279,55 @@
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:31">
-      <c r="A12" s="1">
+      <c r="A12" s="2">
         <v>117</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H12" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="I12" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="J12" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="K12" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="L12" s="1" t="s">
+      <c r="L12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M12" s="1" t="s">
+      <c r="M12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N12" s="1">
+      <c r="N12" s="2">
         <v>30000</v>
       </c>
-      <c r="O12" s="1" t="s">
+      <c r="O12" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="P12" s="1" t="s">
+      <c r="P12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="Q12" s="1" t="s">
+      <c r="Q12" s="2" t="s">
         <v>137</v>
       </c>
       <c r="X12" s="1" t="s">
@@ -3356,55 +3353,55 @@
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:31">
-      <c r="A13" s="1">
+      <c r="A13" s="2">
         <v>114</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H13" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="I13" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="J13" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="K13" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="L13" s="1" t="s">
+      <c r="L13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M13" s="1" t="s">
+      <c r="M13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N13" s="1">
+      <c r="N13" s="2">
         <v>200</v>
       </c>
-      <c r="O13" s="1" t="s">
+      <c r="O13" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="P13" s="1" t="s">
+      <c r="P13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="Q13" s="1" t="s">
+      <c r="Q13" s="2" t="s">
         <v>149</v>
       </c>
       <c r="X13" s="1" t="s">
@@ -3430,55 +3427,55 @@
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:31">
-      <c r="A14" s="1">
+      <c r="A14" s="2">
         <v>457</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H14" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="I14" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="J14" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="K14" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="L14" s="1" t="s">
+      <c r="L14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M14" s="1" t="s">
+      <c r="M14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N14" s="1">
+      <c r="N14" s="2">
         <v>200</v>
       </c>
-      <c r="O14" s="1" t="s">
+      <c r="O14" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="P14" s="1" t="s">
+      <c r="P14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="Q14" s="1">
+      <c r="Q14" s="2">
         <v>89722000</v>
       </c>
       <c r="X14" s="1" t="s">
@@ -3504,55 +3501,55 @@
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:31">
-      <c r="A15" s="1">
+      <c r="A15" s="2">
         <v>118</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G15" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="H15" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="I15" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="J15" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="K15" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="L15" s="1" t="s">
+      <c r="L15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M15" s="1" t="s">
+      <c r="M15" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N15" s="1">
+      <c r="N15" s="2">
         <v>200</v>
       </c>
-      <c r="O15" s="1" t="s">
+      <c r="O15" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="P15" s="1" t="s">
+      <c r="P15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="Q15" s="1" t="s">
+      <c r="Q15" s="2" t="s">
         <v>169</v>
       </c>
       <c r="X15" s="1" t="s">
@@ -3578,55 +3575,55 @@
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:31">
-      <c r="A16" s="1">
+      <c r="A16" s="2">
         <v>106</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G16" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="H16" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="I16" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="J16" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="K16" s="1" t="s">
+      <c r="K16" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="L16" s="1" t="s">
+      <c r="L16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M16" s="1" t="s">
+      <c r="M16" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N16" s="1" t="s">
+      <c r="N16" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="O16" s="1" t="s">
+      <c r="O16" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="P16" s="1" t="s">
+      <c r="P16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="Q16" s="1">
+      <c r="Q16" s="2">
         <v>31398275</v>
       </c>
       <c r="X16" s="1" t="s">
@@ -3652,55 +3649,55 @@
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:31">
-      <c r="A17" s="1">
+      <c r="A17" s="2">
         <v>104</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G17" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="H17" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="I17" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="J17" s="1" t="s">
+      <c r="J17" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="K17" s="1" t="s">
+      <c r="K17" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="L17" s="1" t="s">
+      <c r="L17" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M17" s="1" t="s">
+      <c r="M17" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N17" s="1">
+      <c r="N17" s="2">
         <v>2000</v>
       </c>
-      <c r="O17" s="1" t="s">
+      <c r="O17" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="P17" s="1" t="s">
+      <c r="P17" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="Q17" s="1">
+      <c r="Q17" s="2">
         <v>31419696</v>
       </c>
       <c r="X17" s="1" t="s">
@@ -3726,55 +3723,55 @@
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:31">
-      <c r="A18" s="1">
+      <c r="A18" s="2">
         <v>122</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G18" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="H18" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="I18" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="J18" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="K18" s="1" t="s">
+      <c r="K18" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="L18" s="1" t="s">
+      <c r="L18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M18" s="1" t="s">
+      <c r="M18" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N18" s="1">
+      <c r="N18" s="2">
         <v>200</v>
       </c>
-      <c r="O18" s="1" t="s">
+      <c r="O18" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="P18" s="1" t="s">
+      <c r="P18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="Q18" s="1" t="s">
+      <c r="Q18" s="2" t="s">
         <v>200</v>
       </c>
       <c r="X18" s="1" t="s">
@@ -3800,55 +3797,55 @@
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:31">
-      <c r="A19" s="1">
+      <c r="A19" s="2">
         <v>94</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G19" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="H19" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="I19" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="J19" s="1" t="s">
+      <c r="J19" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="K19" s="1" t="s">
+      <c r="K19" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="L19" s="1" t="s">
+      <c r="L19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M19" s="1" t="s">
+      <c r="M19" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N19" s="1">
+      <c r="N19" s="2">
         <v>300</v>
       </c>
-      <c r="O19" s="1" t="s">
+      <c r="O19" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="P19" s="1" t="s">
+      <c r="P19" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="Q19" s="1">
+      <c r="Q19" s="2">
         <v>89794009</v>
       </c>
       <c r="X19" s="1" t="s">
@@ -3874,49 +3871,51 @@
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:31">
-      <c r="A20" s="1">
+      <c r="A20" s="2">
         <v>93</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="G20" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="H20" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="I20" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="J20" s="1" t="s">
+      <c r="J20" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="K20" s="1" t="s">
+      <c r="K20" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="L20" s="1" t="s">
+      <c r="L20" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M20" s="1" t="s">
+      <c r="M20" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N20" s="1">
+      <c r="N20" s="2">
         <v>200</v>
       </c>
-      <c r="O20" s="1" t="s">
+      <c r="O20" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="P20" s="1" t="s">
+      <c r="P20" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="Q20" s="1">
+      <c r="Q20" s="2">
         <v>89721980</v>
       </c>
       <c r="X20" s="1" t="s">
@@ -3942,55 +3941,55 @@
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:31">
-      <c r="A21" s="1">
+      <c r="A21" s="2">
         <v>111</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="G21" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="H21" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="I21" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="J21" s="1" t="s">
+      <c r="J21" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="K21" s="1" t="s">
+      <c r="K21" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="L21" s="1" t="s">
+      <c r="L21" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M21" s="1" t="s">
+      <c r="M21" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N21" s="1">
+      <c r="N21" s="2">
         <v>300</v>
       </c>
-      <c r="O21" s="1" t="s">
+      <c r="O21" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="P21" s="1" t="s">
+      <c r="P21" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="Q21" s="1" t="s">
+      <c r="Q21" s="2" t="s">
         <v>230</v>
       </c>
       <c r="X21" s="1" t="s">
@@ -4016,52 +4015,53 @@
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:31">
-      <c r="A22" s="1">
+      <c r="A22" s="2">
         <v>101</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="D22" s="2"/>
+      <c r="E22" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F22" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="G22" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="H22" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="I22" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="J22" s="1" t="s">
+      <c r="J22" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="K22" s="1" t="s">
+      <c r="K22" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="L22" s="1" t="s">
+      <c r="L22" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M22" s="1" t="s">
+      <c r="M22" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N22" s="1">
+      <c r="N22" s="2">
         <v>1000</v>
       </c>
-      <c r="O22" s="1" t="s">
+      <c r="O22" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="P22" s="1" t="s">
+      <c r="P22" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="Q22" s="1">
+      <c r="Q22" s="2">
         <v>89872461</v>
       </c>
       <c r="X22" s="1" t="s">
@@ -4087,55 +4087,55 @@
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:31">
-      <c r="A23" s="1">
+      <c r="A23" s="2">
         <v>110</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F23" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="G23" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="H23" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="I23" s="1" t="s">
+      <c r="I23" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="J23" s="1" t="s">
+      <c r="J23" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="K23" s="1" t="s">
+      <c r="K23" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="L23" s="1" t="s">
+      <c r="L23" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M23" s="1" t="s">
+      <c r="M23" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N23" s="1">
+      <c r="N23" s="2">
         <v>1000</v>
       </c>
-      <c r="O23" s="1" t="s">
+      <c r="O23" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="P23" s="1" t="s">
+      <c r="P23" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="Q23" s="1" t="s">
+      <c r="Q23" s="2" t="s">
         <v>249</v>
       </c>
       <c r="X23" s="1" t="s">
@@ -4161,55 +4161,55 @@
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:31">
-      <c r="A24" s="1">
+      <c r="A24" s="2">
         <v>119</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F24" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="G24" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="H24" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="I24" s="1" t="s">
+      <c r="I24" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="J24" s="1" t="s">
+      <c r="J24" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="K24" s="1" t="s">
+      <c r="K24" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="L24" s="1" t="s">
+      <c r="L24" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M24" s="1" t="s">
+      <c r="M24" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N24" s="1">
+      <c r="N24" s="2">
         <v>100</v>
       </c>
-      <c r="O24" s="1" t="s">
+      <c r="O24" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="P24" s="1" t="s">
+      <c r="P24" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="Q24" s="1">
+      <c r="Q24" s="2">
         <v>89648283</v>
       </c>
       <c r="X24" s="1" t="s">
@@ -4235,55 +4235,55 @@
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:31">
-      <c r="A25" s="1">
+      <c r="A25" s="2">
         <v>97</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E25" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F25" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="G25" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="H25" s="1" t="s">
+      <c r="H25" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="I25" s="1" t="s">
+      <c r="I25" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="J25" s="1" t="s">
+      <c r="J25" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="K25" s="1" t="s">
+      <c r="K25" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="L25" s="1" t="s">
+      <c r="L25" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M25" s="1" t="s">
+      <c r="M25" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N25" s="1">
+      <c r="N25" s="2">
         <v>500</v>
       </c>
-      <c r="O25" s="1" t="s">
+      <c r="O25" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="P25" s="1" t="s">
+      <c r="P25" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="Q25" s="1">
+      <c r="Q25" s="2">
         <v>89725390</v>
       </c>
       <c r="X25" s="1" t="s">
@@ -4309,55 +4309,55 @@
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:31">
-      <c r="A26" s="1">
+      <c r="A26" s="2">
         <v>455</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E26" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F26" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="G26" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="H26" s="1" t="s">
+      <c r="H26" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="I26" s="1" t="s">
+      <c r="I26" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="J26" s="1" t="s">
+      <c r="J26" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="K26" s="1" t="s">
+      <c r="K26" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="L26" s="1" t="s">
+      <c r="L26" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M26" s="1" t="s">
+      <c r="M26" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N26" s="1">
+      <c r="N26" s="2">
         <v>100</v>
       </c>
-      <c r="O26" s="1" t="s">
+      <c r="O26" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="P26" s="1" t="s">
+      <c r="P26" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="Q26" s="1">
+      <c r="Q26" s="2">
         <v>15840086071</v>
       </c>
       <c r="X26" s="1" t="s">
@@ -4383,55 +4383,55 @@
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:31">
-      <c r="A27" s="1">
+      <c r="A27" s="2">
         <v>98</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E27" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F27" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="G27" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="H27" s="1" t="s">
+      <c r="H27" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="I27" s="1" t="s">
+      <c r="I27" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="J27" s="1" t="s">
+      <c r="J27" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="K27" s="1" t="s">
+      <c r="K27" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="L27" s="1" t="s">
+      <c r="L27" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M27" s="1" t="s">
+      <c r="M27" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N27" s="1">
+      <c r="N27" s="2">
         <v>210</v>
       </c>
-      <c r="O27" s="1" t="s">
+      <c r="O27" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="P27" s="1" t="s">
+      <c r="P27" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="Q27" s="1">
+      <c r="Q27" s="2">
         <v>89725438</v>
       </c>
       <c r="X27" s="1" t="s">
@@ -4457,55 +4457,55 @@
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:31">
-      <c r="A28" s="1">
+      <c r="A28" s="2">
         <v>99</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E28" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="F28" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="G28" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="H28" s="1" t="s">
+      <c r="H28" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="I28" s="1" t="s">
+      <c r="I28" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="J28" s="1" t="s">
+      <c r="J28" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="K28" s="1" t="s">
+      <c r="K28" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="L28" s="1" t="s">
+      <c r="L28" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M28" s="1" t="s">
+      <c r="M28" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N28" s="1">
+      <c r="N28" s="2">
         <v>500</v>
       </c>
-      <c r="O28" s="1" t="s">
+      <c r="O28" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="P28" s="1" t="s">
+      <c r="P28" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="Q28" s="1" t="s">
+      <c r="Q28" s="2" t="s">
         <v>302</v>
       </c>
       <c r="X28" s="1" t="s">
@@ -4531,48 +4531,51 @@
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:31">
-      <c r="A29" s="1">
+      <c r="A29" s="2">
         <v>459</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E29" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="F29" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="G29" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="H29" s="1" t="s">
+      <c r="H29" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="I29" s="1" t="s">
+      <c r="I29" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="J29" s="1" t="s">
+      <c r="J29" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="K29" s="1" t="s">
+      <c r="K29" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="L29" s="1" t="s">
+      <c r="L29" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M29" s="1" t="s">
+      <c r="M29" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N29" s="1">
+      <c r="N29" s="2">
         <v>200</v>
       </c>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
       <c r="X29" s="1" t="s">
         <v>14</v>
       </c>
@@ -4596,55 +4599,55 @@
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:31">
-      <c r="A30" s="1">
+      <c r="A30" s="2">
         <v>112</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E30" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="F30" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="G30" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="H30" s="1" t="s">
+      <c r="H30" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="I30" s="1" t="s">
+      <c r="I30" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="J30" s="1" t="s">
+      <c r="J30" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="K30" s="1" t="s">
+      <c r="K30" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="L30" s="1" t="s">
+      <c r="L30" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M30" s="1" t="s">
+      <c r="M30" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N30" s="1">
+      <c r="N30" s="2">
         <v>900</v>
       </c>
-      <c r="O30" s="1" t="s">
+      <c r="O30" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="P30" s="1" t="s">
+      <c r="P30" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="Q30" s="1" t="s">
+      <c r="Q30" s="2" t="s">
         <v>321</v>
       </c>
       <c r="X30" s="1" t="s">
@@ -4670,55 +4673,55 @@
       </c>
     </row>
     <row r="31" customHeight="1" spans="1:31">
-      <c r="A31" s="1">
+      <c r="A31" s="2">
         <v>452</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E31" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="F31" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="G31" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="H31" s="1" t="s">
+      <c r="H31" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="I31" s="1" t="s">
+      <c r="I31" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="J31" s="1" t="s">
+      <c r="J31" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="K31" s="1" t="s">
+      <c r="K31" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="L31" s="1" t="s">
+      <c r="L31" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M31" s="1" t="s">
+      <c r="M31" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N31" s="1">
+      <c r="N31" s="2">
         <v>600</v>
       </c>
-      <c r="O31" s="1" t="s">
+      <c r="O31" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="P31" s="1" t="s">
+      <c r="P31" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="Q31" s="1">
+      <c r="Q31" s="2">
         <v>88920666</v>
       </c>
       <c r="X31" s="1" t="s">
@@ -4744,55 +4747,55 @@
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:31">
-      <c r="A32" s="1">
+      <c r="A32" s="2">
         <v>102</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E32" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="F32" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="G32" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="H32" s="1" t="s">
+      <c r="H32" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="I32" s="1" t="s">
+      <c r="I32" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="J32" s="1" t="s">
+      <c r="J32" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="K32" s="1" t="s">
+      <c r="K32" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="L32" s="1" t="s">
+      <c r="L32" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M32" s="1" t="s">
+      <c r="M32" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N32" s="1">
+      <c r="N32" s="2">
         <v>1500</v>
       </c>
-      <c r="O32" s="1" t="s">
+      <c r="O32" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="P32" s="1" t="s">
+      <c r="P32" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="Q32" s="1">
+      <c r="Q32" s="2">
         <v>62540258</v>
       </c>
       <c r="X32" s="1" t="s">
@@ -4818,55 +4821,55 @@
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:31">
-      <c r="A33" s="1">
+      <c r="A33" s="2">
         <v>109</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E33" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="F33" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="G33" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="H33" s="1" t="s">
+      <c r="H33" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="I33" s="1" t="s">
+      <c r="I33" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="J33" s="1" t="s">
+      <c r="J33" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="K33" s="1" t="s">
+      <c r="K33" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="L33" s="1" t="s">
+      <c r="L33" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M33" s="1" t="s">
+      <c r="M33" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N33" s="1">
+      <c r="N33" s="2">
         <v>300</v>
       </c>
-      <c r="O33" s="1" t="s">
+      <c r="O33" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="P33" s="1" t="s">
+      <c r="P33" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="Q33" s="1">
+      <c r="Q33" s="2">
         <v>89718098</v>
       </c>
       <c r="X33" s="1" t="s">
@@ -4892,55 +4895,55 @@
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:31">
-      <c r="A34" s="1">
+      <c r="A34" s="2">
         <v>108</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E34" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="F34" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="G34" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="H34" s="1" t="s">
+      <c r="H34" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="I34" s="1" t="s">
+      <c r="I34" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="J34" s="1" t="s">
+      <c r="J34" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="K34" s="1" t="s">
+      <c r="K34" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="L34" s="1" t="s">
+      <c r="L34" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M34" s="1" t="s">
+      <c r="M34" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N34" s="1">
+      <c r="N34" s="2">
         <v>1000</v>
       </c>
-      <c r="O34" s="1" t="s">
+      <c r="O34" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="P34" s="1" t="s">
+      <c r="P34" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="Q34" s="1">
+      <c r="Q34" s="2">
         <v>86672191</v>
       </c>
       <c r="X34" s="1" t="s">
@@ -4966,55 +4969,55 @@
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:31">
-      <c r="A35" s="1">
+      <c r="A35" s="2">
         <v>96</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E35" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="F35" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="G35" s="1" t="s">
+      <c r="G35" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="H35" s="1" t="s">
+      <c r="H35" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="I35" s="1" t="s">
+      <c r="I35" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="J35" s="1" t="s">
+      <c r="J35" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="K35" s="1" t="s">
+      <c r="K35" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="L35" s="1" t="s">
+      <c r="L35" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M35" s="1" t="s">
+      <c r="M35" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N35" s="1">
+      <c r="N35" s="2">
         <v>300</v>
       </c>
-      <c r="O35" s="1" t="s">
+      <c r="O35" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="P35" s="1" t="s">
+      <c r="P35" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="Q35" s="1">
+      <c r="Q35" s="2">
         <v>89725390</v>
       </c>
       <c r="X35" s="1" t="s">
@@ -5040,55 +5043,55 @@
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:31">
-      <c r="A36" s="1">
+      <c r="A36" s="2">
         <v>116</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="E36" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="F36" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="G36" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="H36" s="1" t="s">
+      <c r="H36" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="I36" s="1" t="s">
+      <c r="I36" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="J36" s="1" t="s">
+      <c r="J36" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="K36" s="1" t="s">
+      <c r="K36" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="L36" s="1" t="s">
+      <c r="L36" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M36" s="1" t="s">
+      <c r="M36" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N36" s="1">
+      <c r="N36" s="2">
         <v>100</v>
       </c>
-      <c r="O36" s="1" t="s">
+      <c r="O36" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="P36" s="1" t="s">
+      <c r="P36" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="Q36" s="1">
+      <c r="Q36" s="2">
         <v>89636912</v>
       </c>
       <c r="X36" s="1" t="s">
@@ -5114,55 +5117,55 @@
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:31">
-      <c r="A37" s="1">
+      <c r="A37" s="2">
         <v>113</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="E37" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F37" s="1" t="s">
+      <c r="F37" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="G37" s="1" t="s">
+      <c r="G37" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="H37" s="1" t="s">
+      <c r="H37" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="I37" s="1" t="s">
+      <c r="I37" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="J37" s="1" t="s">
+      <c r="J37" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="K37" s="1" t="s">
+      <c r="K37" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="L37" s="1" t="s">
+      <c r="L37" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="M37" s="1" t="s">
+      <c r="M37" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N37" s="1">
+      <c r="N37" s="2">
         <v>100</v>
       </c>
-      <c r="O37" s="1" t="s">
+      <c r="O37" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="P37" s="1" t="s">
+      <c r="P37" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="Q37" s="1">
+      <c r="Q37" s="2">
         <v>89874268</v>
       </c>
       <c r="X37" s="1" t="s">
@@ -5188,55 +5191,55 @@
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:31">
-      <c r="A38" s="1">
+      <c r="A38" s="2">
         <v>103</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="E38" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="F38" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="G38" s="1" t="s">
+      <c r="G38" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="H38" s="1" t="s">
+      <c r="H38" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="I38" s="1" t="s">
+      <c r="I38" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="J38" s="1" t="s">
+      <c r="J38" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="K38" s="1" t="s">
+      <c r="K38" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="L38" s="1" t="s">
+      <c r="L38" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M38" s="1" t="s">
+      <c r="M38" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N38" s="1">
+      <c r="N38" s="2">
         <v>150</v>
       </c>
-      <c r="O38" s="1" t="s">
+      <c r="O38" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="P38" s="1" t="s">
+      <c r="P38" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="Q38" s="1">
+      <c r="Q38" s="2">
         <v>89701376</v>
       </c>
       <c r="X38" s="1" t="s">
@@ -5262,55 +5265,55 @@
       </c>
     </row>
     <row r="39" customHeight="1" spans="1:31">
-      <c r="A39" s="1">
+      <c r="A39" s="2">
         <v>107</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D39" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="E39" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F39" s="1" t="s">
+      <c r="F39" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="G39" s="1" t="s">
+      <c r="G39" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="H39" s="1" t="s">
+      <c r="H39" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="I39" s="1" t="s">
+      <c r="I39" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="J39" s="1" t="s">
+      <c r="J39" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="K39" s="1" t="s">
+      <c r="K39" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="L39" s="1" t="s">
+      <c r="L39" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M39" s="1" t="s">
+      <c r="M39" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N39" s="1">
+      <c r="N39" s="2">
         <v>300</v>
       </c>
-      <c r="O39" s="1" t="s">
+      <c r="O39" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="P39" s="1" t="s">
+      <c r="P39" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="Q39" s="1" t="s">
+      <c r="Q39" s="2" t="s">
         <v>414</v>
       </c>
       <c r="X39" s="1" t="s">
@@ -5336,55 +5339,55 @@
       </c>
     </row>
     <row r="40" customHeight="1" spans="1:31">
-      <c r="A40" s="1">
+      <c r="A40" s="2">
         <v>124</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D40" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="E40" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="F40" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="G40" s="1" t="s">
+      <c r="G40" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="H40" s="1" t="s">
+      <c r="H40" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="I40" s="1" t="s">
+      <c r="I40" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="J40" s="1" t="s">
+      <c r="J40" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="K40" s="1" t="s">
+      <c r="K40" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="L40" s="1" t="s">
+      <c r="L40" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M40" s="1" t="s">
+      <c r="M40" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N40" s="1">
+      <c r="N40" s="2">
         <v>20000</v>
       </c>
-      <c r="O40" s="1" t="s">
+      <c r="O40" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="P40" s="1" t="s">
+      <c r="P40" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="Q40" s="1">
+      <c r="Q40" s="2">
         <v>89713144</v>
       </c>
       <c r="X40" s="1" t="s">
@@ -5410,55 +5413,55 @@
       </c>
     </row>
     <row r="41" customHeight="1" spans="1:31">
-      <c r="A41" s="1">
+      <c r="A41" s="2">
         <v>454</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D41" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="E41" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="F41" s="1" t="s">
+      <c r="F41" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="G41" s="1" t="s">
+      <c r="G41" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="H41" s="1" t="s">
+      <c r="H41" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="I41" s="1" t="s">
+      <c r="I41" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="J41" s="1" t="s">
+      <c r="J41" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="K41" s="1" t="s">
+      <c r="K41" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="L41" s="1" t="s">
+      <c r="L41" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M41" s="1" t="s">
+      <c r="M41" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N41" s="1">
+      <c r="N41" s="2">
         <v>500</v>
       </c>
-      <c r="O41" s="1" t="s">
+      <c r="O41" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="P41" s="1" t="s">
+      <c r="P41" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="Q41" s="1">
+      <c r="Q41" s="2">
         <v>88086767</v>
       </c>
       <c r="X41" s="1" t="s">
@@ -5484,52 +5487,53 @@
       </c>
     </row>
     <row r="42" customHeight="1" spans="1:31">
-      <c r="A42" s="1">
+      <c r="A42" s="2">
         <v>92</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D42" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="E42" s="2"/>
+      <c r="F42" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="G42" s="1" t="s">
+      <c r="G42" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="H42" s="1" t="s">
+      <c r="H42" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="I42" s="1" t="s">
+      <c r="I42" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="J42" s="1" t="s">
+      <c r="J42" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="K42" s="1" t="s">
+      <c r="K42" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="L42" s="1" t="s">
+      <c r="L42" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="M42" s="1" t="s">
+      <c r="M42" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N42" s="1">
+      <c r="N42" s="2">
         <v>260</v>
       </c>
-      <c r="O42" s="1" t="s">
+      <c r="O42" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="P42" s="1" t="s">
+      <c r="P42" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="Q42" s="1">
+      <c r="Q42" s="2">
         <v>88926699</v>
       </c>
       <c r="X42" s="1" t="s">
@@ -5555,55 +5559,55 @@
       </c>
     </row>
     <row r="43" customHeight="1" spans="1:31">
-      <c r="A43" s="1">
+      <c r="A43" s="2">
         <v>448</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D43" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="E43" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="F43" s="1" t="s">
+      <c r="F43" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="G43" s="1" t="s">
+      <c r="G43" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="H43" s="1" t="s">
+      <c r="H43" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="I43" s="1" t="s">
+      <c r="I43" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="J43" s="1" t="s">
+      <c r="J43" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="K43" s="1" t="s">
+      <c r="K43" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="L43" s="1" t="s">
+      <c r="L43" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M43" s="1" t="s">
+      <c r="M43" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N43" s="1">
+      <c r="N43" s="2">
         <v>300</v>
       </c>
-      <c r="O43" s="1" t="s">
+      <c r="O43" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="P43" s="1" t="s">
+      <c r="P43" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="Q43" s="1" t="s">
+      <c r="Q43" s="2" t="s">
         <v>457</v>
       </c>
       <c r="X43" s="1" t="s">
@@ -5629,55 +5633,55 @@
       </c>
     </row>
     <row r="44" customHeight="1" spans="1:31">
-      <c r="A44" s="1">
+      <c r="A44" s="2">
         <v>449</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D44" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="E44" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="F44" s="1" t="s">
+      <c r="F44" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="G44" s="1" t="s">
+      <c r="G44" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="H44" s="1" t="s">
+      <c r="H44" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="I44" s="1" t="s">
+      <c r="I44" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="J44" s="1" t="s">
+      <c r="J44" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="K44" s="1" t="s">
+      <c r="K44" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="L44" s="1" t="s">
+      <c r="L44" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M44" s="1" t="s">
+      <c r="M44" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N44" s="1">
+      <c r="N44" s="2">
         <v>500</v>
       </c>
-      <c r="O44" s="1" t="s">
+      <c r="O44" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="P44" s="1" t="s">
+      <c r="P44" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="Q44" s="1">
+      <c r="Q44" s="2">
         <v>2488080170</v>
       </c>
       <c r="X44" s="1" t="s">
@@ -5703,55 +5707,55 @@
       </c>
     </row>
     <row r="45" customHeight="1" spans="1:31">
-      <c r="A45" s="1">
+      <c r="A45" s="2">
         <v>128</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D45" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="E45" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F45" s="1" t="s">
+      <c r="F45" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="G45" s="1" t="s">
+      <c r="G45" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="H45" s="1" t="s">
+      <c r="H45" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="I45" s="1" t="s">
+      <c r="I45" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="J45" s="1" t="s">
+      <c r="J45" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="K45" s="1" t="s">
+      <c r="K45" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="L45" s="1" t="s">
+      <c r="L45" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M45" s="1" t="s">
+      <c r="M45" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N45" s="1">
+      <c r="N45" s="2">
         <v>2000</v>
       </c>
-      <c r="O45" s="1" t="s">
+      <c r="O45" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="P45" s="1" t="s">
+      <c r="P45" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="Q45" s="1" t="s">
+      <c r="Q45" s="2" t="s">
         <v>476</v>
       </c>
       <c r="X45" s="1" t="s">
@@ -5777,7 +5781,9 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="AA1:AA45"/>
+  <autoFilter ref="AA1:AA45">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
